--- a/0622工作内容/+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++/91e6ec2f404853bf25d124bf9e101745.xlsx
+++ b/0622工作内容/+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++/91e6ec2f404853bf25d124bf9e101745.xlsx
@@ -1,50 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\myGGGt\0622工作内容\+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="30" windowWidth="14955" windowHeight="7815"/>
+    <workbookView xWindow="9300" yWindow="36" windowWidth="14952" windowHeight="7812"/>
   </bookViews>
   <sheets>
     <sheet name="솔트케어자염칫솔" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">솔트케어자염칫솔!$A$1:$J$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">솔트케어자염칫솔!$A$1:$J$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>사   이   즈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제 품 명</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>제품구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주판매처</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원산지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 대한민국</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -132,20 +121,58 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>솔트케어자염칫솔세트</t>
+    <r>
+      <t xml:space="preserve">  煮盐牙刷套装</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상품기술서</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  솔트케어자염칫솔Set상품기술서</t>
+    <r>
+      <t>煮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>牙刷套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조원/판매원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  LS생활건강/아이메가(IMEA)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -153,14 +180,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -200,7 +227,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -209,7 +236,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -217,7 +244,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -226,7 +253,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -235,7 +262,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -244,7 +271,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -252,7 +279,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -260,7 +287,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -274,7 +301,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -283,17 +310,24 @@
       <b/>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -310,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -733,32 +767,6 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
@@ -850,11 +858,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -871,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,46 +892,163 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -965,150 +1090,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="쉼표 [0] 2" xfId="1"/>
     <cellStyle name="쉼표 [0] 3" xfId="2"/>
     <cellStyle name="통화 [0] 2" xfId="3"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="4"/>
     <cellStyle name="표준 2 2" xfId="5"/>
     <cellStyle name="표준 3" xfId="6"/>
@@ -1121,6 +1108,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1129,34 +1119,40 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>885826</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1352385</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>742951</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16"/>
+        <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19051" y="771525"/>
-          <a:ext cx="9010650" cy="1323810"/>
+          <a:off x="2761691" y="2785783"/>
+          <a:ext cx="3945590" cy="2914650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1170,99 +1166,23 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>237191</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3222</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1238111</xdr:rowOff>
+      <xdr:rowOff>1344706</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="866775"/>
-          <a:ext cx="7476191" cy="1114286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>284816</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1257161</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="47625" y="885825"/>
-          <a:ext cx="7476191" cy="1114286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>742951</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1275,8 +1195,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3028951" y="3514726"/>
-          <a:ext cx="4391024" cy="2914650"/>
+          <a:off x="0" y="753036"/>
+          <a:ext cx="8161104" cy="1326776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1289,7 +1209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1331,7 +1251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1366,7 +1286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1575,366 +1495,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O2:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="3" customWidth="1"/>
-    <col min="2" max="10" width="11.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="3" customWidth="1"/>
+    <col min="2" max="10" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="A1" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="108.75" customHeight="1" thickBot="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A4" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+    </row>
+    <row r="5" spans="1:10" ht="60" customHeight="1">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+    </row>
+    <row r="7" spans="1:10" ht="60" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="1:10" ht="60" customHeight="1" thickBot="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" ht="55.5" customHeight="1" thickBot="1">
+      <c r="A9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="27" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" ht="27" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="90.75" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="A6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:10" ht="85.5" customHeight="1">
+      <c r="A18" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:10" ht="60" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+    </row>
+    <row r="19" spans="1:10" ht="168.75" customHeight="1">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="60" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="60" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-    </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
-    </row>
-    <row r="14" spans="1:10" ht="90.75" customHeight="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="45" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A19" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
-    </row>
-    <row r="20" spans="1:10" ht="85.5" customHeight="1">
-      <c r="A20" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" ht="168.75" customHeight="1">
-      <c r="A21" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="D25" s="2"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J14"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A15:B18"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="A7:B10"/>
-    <mergeCell ref="C7:J10"/>
+  <mergeCells count="25">
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A5:B8"/>
+    <mergeCell ref="C5:J8"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J12"/>
+    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A13:B16"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:J15"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1952,7 +1830,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
